--- a/results/HQscenario_firstYearCO.xlsx
+++ b/results/HQscenario_firstYearCO.xlsx
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5088452.606206657</v>
+        <v>5086482.471113802</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5088452.606206657</v>
+        <v>5086482.471113802</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8811634.645337395</v>
+        <v>8808222.977393584</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8811634.645337395</v>
+        <v>8808222.977393584</v>
       </c>
     </row>
     <row r="4">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>99968.21973410768</v>
+        <v>99929.514274293</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99968.21973410768</v>
+        <v>99929.514274293</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>547309.6595878758</v>
+        <v>547097.7535232113</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>547309.6595878758</v>
+        <v>547097.7535232113</v>
       </c>
     </row>
     <row r="7">
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2198006800.387751</v>
+        <v>2017282341.288148</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2969187729.781851</v>
+        <v>2788463270.682249</v>
       </c>
     </row>
     <row r="10">
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>41701194.52548937</v>
+        <v>41685048.75523134</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41701194.52548937</v>
+        <v>41685048.75523134</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>63734361.88618914</v>
+        <v>63709685.36609744</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63734361.88618914</v>
+        <v>63709685.36609744</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>217291.37775776</v>
+        <v>217207.2473940079</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>217291.37775776</v>
+        <v>217207.2473940079</v>
       </c>
     </row>
     <row r="14">
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8921757.936264934</v>
+        <v>8918303.631044766</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>8921757.936264934</v>
+        <v>8918303.631044766</v>
       </c>
     </row>
     <row r="17">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>135769918.1966125</v>
+        <v>135717351.1195276</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>135769918.1966125</v>
+        <v>135717351.1195276</v>
       </c>
     </row>
     <row r="22">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>16354178.56511227</v>
+        <v>16347846.59278209</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>16354178.56511227</v>
+        <v>16347846.59278209</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5411031.033451401</v>
+        <v>5408936.003203005</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5411031.033451401</v>
+        <v>5408936.003203005</v>
       </c>
     </row>
     <row r="24">
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>229757262.4026999</v>
+        <v>229668305.5270976</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>229757262.4026999</v>
+        <v>229668305.5270976</v>
       </c>
     </row>
     <row r="26">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>70435.77251545069</v>
+        <v>70439.38449902159</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>63918277.99525587</v>
+        <v>63893499.38381829</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>63988713.76777133</v>
+        <v>63963938.76831731</v>
       </c>
     </row>
     <row r="27">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>58335953.25007542</v>
+        <v>57608532.1761839</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>877.7365391027062</v>
+        <v>877.3966879701775</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>58336830.98661453</v>
+        <v>57609409.57287187</v>
       </c>
     </row>
     <row r="32">
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>41406444.58682031</v>
+        <v>41390412.93714918</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41406444.58682031</v>
+        <v>41390412.93714918</v>
       </c>
     </row>
     <row r="36">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>134759658.8333509</v>
+        <v>134707482.9061063</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>134759658.8333509</v>
+        <v>134707482.9061063</v>
       </c>
     </row>
     <row r="37">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>172146.4568086168</v>
+        <v>172079.8055490068</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>172146.4568086168</v>
+        <v>172079.8055490068</v>
       </c>
     </row>
     <row r="39">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>307219362.3385053</v>
+        <v>303389299.1420747</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>67713060.91282356</v>
+        <v>67686815.445133</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>374932423.2513289</v>
+        <v>371076114.5872077</v>
       </c>
     </row>
     <row r="41">
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1857024.248587716</v>
+        <v>1856305.250313866</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1857024.248587716</v>
+        <v>1856305.250313866</v>
       </c>
     </row>
     <row r="46">
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>77639975.79280429</v>
+        <v>77609915.32987864</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>77639975.79280429</v>
+        <v>77609915.32987864</v>
       </c>
     </row>
     <row r="47">
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>140221690.1737414</v>
+        <v>140167399.4700697</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>140221690.1737414</v>
+        <v>140167399.4700697</v>
       </c>
     </row>
     <row r="49">
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>333.9702001353426</v>
+        <v>333.8408943400106</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>333.9702001353426</v>
+        <v>333.8408943400106</v>
       </c>
     </row>
     <row r="51">
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>8946632.061135586</v>
+        <v>8943168.12521035</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>8946632.061135586</v>
+        <v>8943168.12521035</v>
       </c>
     </row>
     <row r="53">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>4480.557775544185</v>
+        <v>4478.823003739805</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4480.557775544185</v>
+        <v>4478.823003739805</v>
       </c>
     </row>
     <row r="54">
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>39968882.94617655</v>
+        <v>39953407.88823488</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>39968882.94617655</v>
+        <v>39953407.88823488</v>
       </c>
     </row>
     <row r="55">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>89332354.67119992</v>
+        <v>88218423.55277395</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>66660.59303476363</v>
+        <v>66634.78129328687</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>89399015.26423468</v>
+        <v>88285058.33406724</v>
       </c>
     </row>
     <row r="58">
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>110137417.8030367</v>
+        <v>110094775.05707</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>110137417.8030367</v>
+        <v>110094775.05707</v>
       </c>
     </row>
     <row r="59">
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>90813.45935949613</v>
+        <v>90778.29841823679</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>90813.45935949613</v>
+        <v>90778.29841823679</v>
       </c>
     </row>
     <row r="60">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>44226287.70958021</v>
+        <v>44209164.2796917</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>44226287.70958021</v>
+        <v>44209164.2796917</v>
       </c>
     </row>
     <row r="62">
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>51949719.96212066</v>
+        <v>51301932.12298515</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>39644820.83908883</v>
+        <v>39629471.25075036</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>91594540.80120948</v>
+        <v>90931403.37373552</v>
       </c>
     </row>
     <row r="63">
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>130197627.9109699</v>
+        <v>130147218.3001108</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>130197627.9109699</v>
+        <v>130147218.3001108</v>
       </c>
     </row>
     <row r="64">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2024644095.294044</v>
+        <v>812391834.0411135</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3849539658.371283</v>
+        <v>2637287397.118352</v>
       </c>
     </row>
     <row r="67">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>78267278.99382673</v>
+        <v>78236975.65312549</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>78267278.99382673</v>
+        <v>78236975.65312549</v>
       </c>
     </row>
     <row r="70">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2191787329.470241</v>
+        <v>2164460162.284015</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>64907944.52180131</v>
+        <v>64882695.99251785</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2256695273.992043</v>
+        <v>2229342858.276533</v>
       </c>
     </row>
     <row r="72">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2787932.225242821</v>
+        <v>2786852.800211574</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2787932.225242821</v>
+        <v>2786852.800211574</v>
       </c>
     </row>
     <row r="73">
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>153668.36797171</v>
+        <v>153676.2481666827</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>58708808.31256747</v>
+        <v>58686010.19731768</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>58862476.68053918</v>
+        <v>58839686.44548436</v>
       </c>
     </row>
     <row r="74">
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>231664961.4616689</v>
+        <v>231575265.9676391</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>231664961.4616689</v>
+        <v>231575265.9676391</v>
       </c>
     </row>
     <row r="76">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>14.60145735862537</v>
+        <v>14.60220612906129</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>12185727.26774324</v>
+        <v>12181009.22016434</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>12185741.8692006</v>
+        <v>12181023.82237047</v>
       </c>
     </row>
     <row r="79">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1311791.355748176</v>
+        <v>1311283.459461334</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1311791.355748176</v>
+        <v>1311283.459461334</v>
       </c>
     </row>
     <row r="82">
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>6166961.392054756</v>
+        <v>6164573.682470912</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>6166961.392054756</v>
+        <v>6164573.682470912</v>
       </c>
     </row>
     <row r="83">
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>54038.58205350486</v>
+        <v>54017.65952260777</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>54038.58205350486</v>
+        <v>54017.65952260777</v>
       </c>
     </row>
     <row r="84">
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>63429798.07184019</v>
+        <v>63405239.47204864</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>63429798.07184019</v>
+        <v>63405239.47204864</v>
       </c>
     </row>
     <row r="86">
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>385108.4511993689</v>
+        <v>384959.3458164598</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>385108.4511993689</v>
+        <v>384959.3458164598</v>
       </c>
     </row>
     <row r="89">
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>6396226852.948547</v>
+        <v>6393750376.903651</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>6396226852.948547</v>
+        <v>6393750376.903651</v>
       </c>
     </row>
     <row r="91">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3485016.773239661</v>
+        <v>3482804.47245874</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3485016.773239661</v>
+        <v>3482804.47245874</v>
       </c>
     </row>
     <row r="3">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6034977.018593728</v>
+        <v>6031145.994171236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6034977.018593728</v>
+        <v>6031145.994171236</v>
       </c>
     </row>
     <row r="4">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>68466.96815832035</v>
+        <v>68423.5050885621</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68466.96815832035</v>
+        <v>68423.5050885621</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>374845.4572404387</v>
+        <v>374607.5040391384</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>374845.4572404387</v>
+        <v>374607.5040391384</v>
       </c>
     </row>
     <row r="7">
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1817544812.421418</v>
+        <v>1636820353.321816</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2377035767.316319</v>
+        <v>2196311308.216716</v>
       </c>
     </row>
     <row r="10">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>28560620.21845195</v>
+        <v>28542489.83730198</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>28560620.21845195</v>
+        <v>28542489.83730198</v>
       </c>
     </row>
     <row r="12">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>43650857.61714079</v>
+        <v>43623147.90075268</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43650857.61714079</v>
+        <v>43623147.90075268</v>
       </c>
     </row>
     <row r="13">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>148820.1138480633</v>
+        <v>148725.6423216675</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>148820.1138480633</v>
+        <v>148725.6423216675</v>
       </c>
     </row>
     <row r="14">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6110399.066455333</v>
+        <v>6106520.163854272</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6110399.066455333</v>
+        <v>6106520.163854272</v>
       </c>
     </row>
     <row r="17">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92987098.2073081</v>
+        <v>92928069.67362665</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>92987098.2073081</v>
+        <v>92928069.67362665</v>
       </c>
     </row>
     <row r="22">
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11200769.86517541</v>
+        <v>11193659.57746893</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>11200769.86517541</v>
+        <v>11193659.57746893</v>
       </c>
     </row>
     <row r="23">
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3705946.654410603</v>
+        <v>3703594.106571935</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3705946.654410603</v>
+        <v>3703594.106571935</v>
       </c>
     </row>
     <row r="24">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>157357840.4307764</v>
+        <v>157257949.1258213</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>157357840.4307764</v>
+        <v>157257949.1258213</v>
       </c>
     </row>
     <row r="26">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>57092.00704315987</v>
+        <v>57089.81988718531</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>43767967.99385134</v>
+        <v>43740149.8803395</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43825060.0008945</v>
+        <v>43797239.70022669</v>
       </c>
     </row>
     <row r="27">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24671003.8099345</v>
+        <v>24363368.34537764</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>601.1476548203844</v>
+        <v>600.7660320082833</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24671604.95758932</v>
+        <v>24363969.11140964</v>
       </c>
     </row>
     <row r="32">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>28358749.71681457</v>
+        <v>28340747.48376186</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>28358749.71681457</v>
+        <v>28340747.48376186</v>
       </c>
     </row>
     <row r="36">
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>92295184.35868648</v>
+        <v>92236595.05432506</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>92295184.35868648</v>
+        <v>92236595.05432506</v>
       </c>
     </row>
     <row r="37">
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>117900.9289975573</v>
+        <v>117826.0850773514</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>117900.9289975573</v>
+        <v>117826.0850773514</v>
       </c>
     </row>
     <row r="39">
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>166729725.0911028</v>
+        <v>164651280.8968976</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>46372472.40889758</v>
+        <v>46343006.46611808</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>213102197.5000004</v>
+        <v>210994287.3630157</v>
       </c>
     </row>
     <row r="41">
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1271852.399047014</v>
+        <v>1271045.022716078</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1271852.399047014</v>
+        <v>1271045.022716078</v>
       </c>
     </row>
     <row r="46">
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>53174636.54506824</v>
+        <v>53140881.10065915</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>53174636.54506824</v>
+        <v>53140881.10065915</v>
       </c>
     </row>
     <row r="47">
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>96036060.47768648</v>
+        <v>95975096.45214064</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>96036060.47768648</v>
+        <v>95975096.45214064</v>
       </c>
     </row>
     <row r="49">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>228.7319622107151</v>
+        <v>228.5867623647614</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>228.7319622107151</v>
+        <v>228.5867623647614</v>
       </c>
     </row>
     <row r="51">
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>6127435.039687775</v>
+        <v>6123545.322591594</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>6127435.039687775</v>
+        <v>6123545.322591594</v>
       </c>
     </row>
     <row r="53">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>3068.677299302079</v>
+        <v>3066.729292268721</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3068.677299302079</v>
+        <v>3066.729292268721</v>
       </c>
     </row>
     <row r="54">
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>27374181.94780389</v>
+        <v>27356804.72179878</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>27374181.94780389</v>
+        <v>27356804.72179878</v>
       </c>
     </row>
     <row r="55">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>51345119.72877306</v>
+        <v>50704871.01186885</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>45654.46955372343</v>
+        <v>45625.48552678708</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>51390774.19832679</v>
+        <v>50750496.49739563</v>
       </c>
     </row>
     <row r="58">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>75431723.17979512</v>
+        <v>75383838.85930109</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>75431723.17979512</v>
+        <v>75383838.85930109</v>
       </c>
     </row>
     <row r="59">
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>62196.98867151224</v>
+        <v>62157.50580656148</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>62196.98867151224</v>
+        <v>62157.50580656148</v>
       </c>
     </row>
     <row r="60">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>30290024.57407392</v>
+        <v>30270796.36101799</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>30290024.57407392</v>
+        <v>30270796.36101799</v>
       </c>
     </row>
     <row r="62">
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>41798403.81398814</v>
+        <v>41277197.96907272</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>27152235.91309099</v>
+        <v>27134999.57920143</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>68950639.72707914</v>
+        <v>68412197.54827414</v>
       </c>
     </row>
     <row r="63">
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>89170707.13251694</v>
+        <v>89114101.25717673</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>89170707.13251694</v>
+        <v>89114101.25717673</v>
       </c>
     </row>
     <row r="64">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1202027699.007278</v>
+        <v>482315627.3413675</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>2411999242.164095</v>
+        <v>1692287170.498185</v>
       </c>
     </row>
     <row r="67">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>53604268.56616706</v>
+        <v>53570240.38985519</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>53604268.56616706</v>
+        <v>53570240.38985519</v>
       </c>
     </row>
     <row r="70">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1314418906.387367</v>
+        <v>1298031581.529805</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>44409737.2761488</v>
+        <v>44381409.44654325</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1358828643.663516</v>
+        <v>1342412990.976348</v>
       </c>
     </row>
     <row r="72">
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1909419.487522689</v>
+        <v>1908207.381384266</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1909419.487522689</v>
+        <v>1908207.381384266</v>
       </c>
     </row>
     <row r="73">
@@ -5873,7 +5873,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>125780.2228420796</v>
+        <v>125775.404287257</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>40188384.89208721</v>
+        <v>40162798.1382712</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>40314165.1149293</v>
+        <v>40288573.54255845</v>
       </c>
     </row>
     <row r="74">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>158664399.3659409</v>
+        <v>158563678.652825</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>158664399.3659409</v>
+        <v>158563678.652825</v>
       </c>
     </row>
     <row r="76">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>8345860.342048394</v>
+        <v>8340562.36084671</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>8345860.342048394</v>
+        <v>8340562.36084671</v>
       </c>
     </row>
     <row r="79">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>898429.2930618924</v>
+        <v>897858.9670187279</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>898429.2930618924</v>
+        <v>897858.9670187279</v>
       </c>
     </row>
     <row r="82">
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>4223673.787394097</v>
+        <v>4220992.584568918</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>4223673.787394097</v>
+        <v>4220992.584568918</v>
       </c>
     </row>
     <row r="83">
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>37010.34075247979</v>
+        <v>36986.84645931667</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>37010.34075247979</v>
+        <v>36986.84645931667</v>
       </c>
     </row>
     <row r="84">
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>43442265.71628801</v>
+        <v>43414688.41476478</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>43442265.71628801</v>
+        <v>43414688.41476478</v>
       </c>
     </row>
     <row r="86">
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>263755.9029849478</v>
+        <v>263588.469819453</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>263755.9029849478</v>
+        <v>263588.469819453</v>
       </c>
     </row>
     <row r="89">
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>4380694799.197334</v>
+        <v>4377913918.887184</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>4380694799.197334</v>
+        <v>4377913918.887184</v>
       </c>
     </row>
     <row r="91">
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3485016.773239661</v>
+        <v>3482804.472458739</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3485016.773239661</v>
+        <v>3482804.472458739</v>
       </c>
     </row>
     <row r="3">
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6034977.018593727</v>
+        <v>6031145.994171234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6034977.018593727</v>
+        <v>6031145.994171234</v>
       </c>
     </row>
     <row r="4">
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>68466.96815832035</v>
+        <v>68423.50508856209</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68466.96815832035</v>
+        <v>68423.50508856209</v>
       </c>
     </row>
     <row r="5">
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>374845.4572404387</v>
+        <v>374607.5040391383</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>374845.4572404387</v>
+        <v>374607.5040391383</v>
       </c>
     </row>
     <row r="7">
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1817544812.421417</v>
+        <v>1636820353.321815</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2377035767.316318</v>
+        <v>2196311308.216716</v>
       </c>
     </row>
     <row r="10">
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>28560620.21845195</v>
+        <v>28542489.83730198</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>28560620.21845195</v>
+        <v>28542489.83730198</v>
       </c>
     </row>
     <row r="12">
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>43650857.61714078</v>
+        <v>43623147.90075266</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43650857.61714078</v>
+        <v>43623147.90075266</v>
       </c>
     </row>
     <row r="13">
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>148820.1138480633</v>
+        <v>148725.6423216675</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>148820.1138480633</v>
+        <v>148725.6423216675</v>
       </c>
     </row>
     <row r="14">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6110399.066455332</v>
+        <v>6106520.16385427</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6110399.066455332</v>
+        <v>6106520.16385427</v>
       </c>
     </row>
     <row r="17">
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92987098.20730807</v>
+        <v>92928069.67362662</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>92987098.20730807</v>
+        <v>92928069.67362662</v>
       </c>
     </row>
     <row r="22">
@@ -7235,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11200769.86517541</v>
+        <v>11193659.57746893</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>11200769.86517541</v>
+        <v>11193659.57746893</v>
       </c>
     </row>
     <row r="23">
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3705946.654410602</v>
+        <v>3703594.106571934</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3705946.654410602</v>
+        <v>3703594.106571934</v>
       </c>
     </row>
     <row r="24">
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>157357840.4307763</v>
+        <v>157257949.1258213</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>157357840.4307763</v>
+        <v>157257949.1258213</v>
       </c>
     </row>
     <row r="26">
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>57092.00704315986</v>
+        <v>57089.8198871853</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>43767967.99385133</v>
+        <v>43740149.88033949</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43825060.00089449</v>
+        <v>43797239.70022667</v>
       </c>
     </row>
     <row r="27">
@@ -7523,7 +7523,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24671003.8099345</v>
+        <v>24363368.34537764</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>601.1476548203843</v>
+        <v>600.7660320082831</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24671604.95758932</v>
+        <v>24363969.11140964</v>
       </c>
     </row>
     <row r="32">
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>28358749.71681456</v>
+        <v>28340747.48376185</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>28358749.71681456</v>
+        <v>28340747.48376185</v>
       </c>
     </row>
     <row r="36">
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>92295184.35868646</v>
+        <v>92236595.05432503</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>92295184.35868646</v>
+        <v>92236595.05432503</v>
       </c>
     </row>
     <row r="37">
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>117900.9289975573</v>
+        <v>117826.0850773514</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>117900.9289975573</v>
+        <v>117826.0850773514</v>
       </c>
     </row>
     <row r="39">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>166729725.0911028</v>
+        <v>164651280.8968976</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>46372472.40889756</v>
+        <v>46343006.46611807</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>213102197.5000004</v>
+        <v>210994287.3630157</v>
       </c>
     </row>
     <row r="41">
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1271852.399047014</v>
+        <v>1271045.022716078</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1271852.399047014</v>
+        <v>1271045.022716078</v>
       </c>
     </row>
     <row r="46">
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>53174636.54506823</v>
+        <v>53140881.10065913</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>53174636.54506823</v>
+        <v>53140881.10065913</v>
       </c>
     </row>
     <row r="47">
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>96036060.47768645</v>
+        <v>95975096.45214061</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>96036060.47768645</v>
+        <v>95975096.45214061</v>
       </c>
     </row>
     <row r="49">
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>228.731962210715</v>
+        <v>228.5867623647613</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>228.731962210715</v>
+        <v>228.5867623647613</v>
       </c>
     </row>
     <row r="51">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>6127435.039687773</v>
+        <v>6123545.322591593</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>6127435.039687773</v>
+        <v>6123545.322591593</v>
       </c>
     </row>
     <row r="53">
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>3068.677299302078</v>
+        <v>3066.72929226872</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3068.677299302078</v>
+        <v>3066.72929226872</v>
       </c>
     </row>
     <row r="54">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>27374181.94780388</v>
+        <v>27356804.72179877</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>27374181.94780388</v>
+        <v>27356804.72179877</v>
       </c>
     </row>
     <row r="55">
@@ -8381,7 +8381,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>51345119.72877304</v>
+        <v>50704871.01186882</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>45654.46955372341</v>
+        <v>45625.48552678706</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>51390774.19832677</v>
+        <v>50750496.4973956</v>
       </c>
     </row>
     <row r="58">
@@ -8423,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>75431723.1797951</v>
+        <v>75383838.85930106</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>75431723.1797951</v>
+        <v>75383838.85930106</v>
       </c>
     </row>
     <row r="59">
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>62196.98867151223</v>
+        <v>62157.50580656146</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>62196.98867151223</v>
+        <v>62157.50580656146</v>
       </c>
     </row>
     <row r="60">
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>30290024.57407391</v>
+        <v>30270796.36101798</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>30290024.57407391</v>
+        <v>30270796.36101798</v>
       </c>
     </row>
     <row r="62">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>41798403.81398813</v>
+        <v>41277197.96907271</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>27152235.91309099</v>
+        <v>27134999.57920142</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>68950639.72707912</v>
+        <v>68412197.54827413</v>
       </c>
     </row>
     <row r="63">
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>89170707.13251692</v>
+        <v>89114101.2571767</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>89170707.13251692</v>
+        <v>89114101.2571767</v>
       </c>
     </row>
     <row r="64">
@@ -8678,7 +8678,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1202027699.007277</v>
+        <v>482315627.3413672</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>2411999242.164094</v>
+        <v>1692287170.498184</v>
       </c>
     </row>
     <row r="67">
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>53604268.56616706</v>
+        <v>53570240.38985518</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>53604268.56616706</v>
+        <v>53570240.38985518</v>
       </c>
     </row>
     <row r="70">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1314418906.387366</v>
+        <v>1298031581.529804</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>44409737.2761488</v>
+        <v>44381409.44654324</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1358828643.663515</v>
+        <v>1342412990.976347</v>
       </c>
     </row>
     <row r="72">
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1909419.487522689</v>
+        <v>1908207.381384265</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1909419.487522689</v>
+        <v>1908207.381384265</v>
       </c>
     </row>
     <row r="73">
@@ -8909,7 +8909,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>125780.2228420796</v>
+        <v>125775.404287257</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>40188384.89208721</v>
+        <v>40162798.13827119</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>40314165.11492929</v>
+        <v>40288573.54255845</v>
       </c>
     </row>
     <row r="74">
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>158664399.3659409</v>
+        <v>158563678.6528249</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>158664399.3659409</v>
+        <v>158563678.6528249</v>
       </c>
     </row>
     <row r="76">
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>8345860.342048391</v>
+        <v>8340562.360846707</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>8345860.342048391</v>
+        <v>8340562.360846707</v>
       </c>
     </row>
     <row r="79">
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>898429.2930618922</v>
+        <v>897858.9670187277</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>898429.2930618922</v>
+        <v>897858.9670187277</v>
       </c>
     </row>
     <row r="82">
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>4223673.787394097</v>
+        <v>4220992.584568916</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>4223673.787394097</v>
+        <v>4220992.584568916</v>
       </c>
     </row>
     <row r="83">
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>37010.34075247978</v>
+        <v>36986.84645931666</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>37010.34075247978</v>
+        <v>36986.84645931666</v>
       </c>
     </row>
     <row r="84">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>43442265.71628799</v>
+        <v>43414688.41476476</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>43442265.71628799</v>
+        <v>43414688.41476476</v>
       </c>
     </row>
     <row r="86">
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>263755.9029849478</v>
+        <v>263588.4698194529</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>263755.9029849478</v>
+        <v>263588.4698194529</v>
       </c>
     </row>
     <row r="89">
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>4380694799.197333</v>
+        <v>4377913918.887183</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>4380694799.197333</v>
+        <v>4377913918.887183</v>
       </c>
     </row>
     <row r="91">
